--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Saudi Arabia_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Saudi Arabia_FX.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G387"/>
+  <dimension ref="A1:G390"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10117,12 +10117,87 @@
         <v>3.7525</v>
       </c>
       <c r="E387" t="n">
-        <v>3.7474</v>
+        <v>3.7462</v>
       </c>
       <c r="F387" t="n">
-        <v>3.7492</v>
+        <v>3.7504</v>
       </c>
       <c r="G387" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="2" t="n">
+        <v>45047.33333333334</v>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDSAR</t>
+        </is>
+      </c>
+      <c r="C388" t="n">
+        <v>3.7484</v>
+      </c>
+      <c r="D388" t="n">
+        <v>3.7504</v>
+      </c>
+      <c r="E388" t="n">
+        <v>3.7454</v>
+      </c>
+      <c r="F388" t="n">
+        <v>3.7487</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="2" t="n">
+        <v>45078.33333333334</v>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDSAR</t>
+        </is>
+      </c>
+      <c r="C389" t="n">
+        <v>3.7487</v>
+      </c>
+      <c r="D389" t="n">
+        <v>3.75154</v>
+      </c>
+      <c r="E389" t="n">
+        <v>3.7459</v>
+      </c>
+      <c r="F389" t="n">
+        <v>3.74783</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="2" t="n">
+        <v>45110.33333333334</v>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDSAR</t>
+        </is>
+      </c>
+      <c r="C390" t="n">
+        <v>3.7484</v>
+      </c>
+      <c r="D390" t="n">
+        <v>3.7514</v>
+      </c>
+      <c r="E390" t="n">
+        <v>3.74663</v>
+      </c>
+      <c r="F390" t="n">
+        <v>3.7493</v>
+      </c>
+      <c r="G390" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Saudi Arabia_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Saudi Arabia_FX.xlsx
@@ -10189,13 +10189,13 @@
         <v>3.7484</v>
       </c>
       <c r="D390" t="n">
-        <v>3.7514</v>
+        <v>3.7517</v>
       </c>
       <c r="E390" t="n">
         <v>3.74663</v>
       </c>
       <c r="F390" t="n">
-        <v>3.7493</v>
+        <v>3.74863</v>
       </c>
       <c r="G390" t="n">
         <v>0</v>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Saudi Arabia_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Saudi Arabia_FX.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G390"/>
+  <dimension ref="A1:G391"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,7 +503,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>33329.33333333334</v>
+        <v>33329.375</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>33665.33333333334</v>
+        <v>33665.375</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -803,7 +803,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>33695.33333333334</v>
+        <v>33695.375</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>34060.33333333334</v>
+        <v>34060.375</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>34425.33333333334</v>
+        <v>34425.375</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>34610.33333333334</v>
+        <v>34610.375</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>34974.33333333334</v>
+        <v>34974.375</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>35156.33333333334</v>
+        <v>35156.375</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -2303,7 +2303,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>35521.33333333334</v>
+        <v>35521.375</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>35886.33333333334</v>
+        <v>35886.375</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>36251.33333333334</v>
+        <v>36251.375</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>36770.375</v>
+        <v>36770.33333333334</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -3803,7 +3803,7 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>37347.33333333334</v>
+        <v>37347.375</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>37712.33333333334</v>
+        <v>37712.375</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>38078.33333333334</v>
+        <v>38078.375</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>38443.33333333334</v>
+        <v>38443.375</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>38628.33333333334</v>
+        <v>38628.375</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>38992.33333333334</v>
+        <v>38992.375</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -10189,15 +10189,40 @@
         <v>3.7484</v>
       </c>
       <c r="D390" t="n">
-        <v>3.7517</v>
+        <v>3.75188</v>
       </c>
       <c r="E390" t="n">
-        <v>3.74663</v>
+        <v>3.744</v>
       </c>
       <c r="F390" t="n">
-        <v>3.74863</v>
+        <v>3.74899</v>
       </c>
       <c r="G390" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="2" t="n">
+        <v>45139.33333333334</v>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDSAR</t>
+        </is>
+      </c>
+      <c r="C391" t="n">
+        <v>3.74911</v>
+      </c>
+      <c r="D391" t="n">
+        <v>3.75229</v>
+      </c>
+      <c r="E391" t="n">
+        <v>3.7469</v>
+      </c>
+      <c r="F391" t="n">
+        <v>3.74857</v>
+      </c>
+      <c r="G391" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Saudi Arabia_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Saudi Arabia_FX.xlsx
@@ -503,7 +503,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>33329.375</v>
+        <v>33329.33333333334</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>33665.375</v>
+        <v>33665.33333333334</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -803,7 +803,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>33695.375</v>
+        <v>33695.33333333334</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>34060.375</v>
+        <v>34060.33333333334</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>34425.375</v>
+        <v>34425.33333333334</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>34610.375</v>
+        <v>34610.33333333334</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>34974.375</v>
+        <v>34974.33333333334</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -2003,7 +2003,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>35156.375</v>
+        <v>35156.33333333334</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -2303,7 +2303,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>35521.375</v>
+        <v>35521.33333333334</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>35886.375</v>
+        <v>35886.33333333334</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -2903,7 +2903,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>36251.375</v>
+        <v>36251.33333333334</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>36770.33333333334</v>
+        <v>36770.375</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -3803,7 +3803,7 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>37347.375</v>
+        <v>37347.33333333334</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -4103,7 +4103,7 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>37712.375</v>
+        <v>37712.33333333334</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>38078.375</v>
+        <v>38078.33333333334</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
@@ -4703,7 +4703,7 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>38443.375</v>
+        <v>38443.33333333334</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
@@ -4853,7 +4853,7 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>38628.375</v>
+        <v>38628.33333333334</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
@@ -5153,7 +5153,7 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>38992.375</v>
+        <v>38992.33333333334</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
@@ -10220,7 +10220,7 @@
         <v>3.7469</v>
       </c>
       <c r="F391" t="n">
-        <v>3.74857</v>
+        <v>3.75123</v>
       </c>
       <c r="G391" t="n">
         <v>0</v>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Saudi Arabia_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Saudi Arabia_FX.xlsx
@@ -10217,10 +10217,10 @@
         <v>3.75229</v>
       </c>
       <c r="E391" t="n">
-        <v>3.7469</v>
+        <v>3.7452</v>
       </c>
       <c r="F391" t="n">
-        <v>3.75123</v>
+        <v>3.75098</v>
       </c>
       <c r="G391" t="n">
         <v>0</v>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Saudi Arabia_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Saudi Arabia_FX.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G391"/>
+  <dimension ref="A1:G394"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10220,9 +10220,84 @@
         <v>3.7452</v>
       </c>
       <c r="F391" t="n">
-        <v>3.75098</v>
+        <v>3.7486</v>
       </c>
       <c r="G391" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="2" t="n">
+        <v>45170.33333333334</v>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDSAR</t>
+        </is>
+      </c>
+      <c r="C392" t="n">
+        <v>3.75011</v>
+      </c>
+      <c r="D392" t="n">
+        <v>3.7512</v>
+      </c>
+      <c r="E392" t="n">
+        <v>3.7462</v>
+      </c>
+      <c r="F392" t="n">
+        <v>3.7483</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="2" t="n">
+        <v>45201.375</v>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDSAR</t>
+        </is>
+      </c>
+      <c r="C393" t="n">
+        <v>3.7483</v>
+      </c>
+      <c r="D393" t="n">
+        <v>3.7512</v>
+      </c>
+      <c r="E393" t="n">
+        <v>3.7454</v>
+      </c>
+      <c r="F393" t="n">
+        <v>3.7495</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="2" t="n">
+        <v>45231.375</v>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>FX_IDC:USDSAR</t>
+        </is>
+      </c>
+      <c r="C394" t="n">
+        <v>3.7495</v>
+      </c>
+      <c r="D394" t="n">
+        <v>3.7514</v>
+      </c>
+      <c r="E394" t="n">
+        <v>3.7483</v>
+      </c>
+      <c r="F394" t="n">
+        <v>3.7487</v>
+      </c>
+      <c r="G394" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Saudi Arabia_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Saudi Arabia_FX.xlsx
@@ -10292,10 +10292,10 @@
         <v>3.7514</v>
       </c>
       <c r="E394" t="n">
-        <v>3.7483</v>
+        <v>3.7456</v>
       </c>
       <c r="F394" t="n">
-        <v>3.7487</v>
+        <v>3.7482</v>
       </c>
       <c r="G394" t="n">
         <v>0</v>

--- a/Global_M2/TVDataFeed/FinalData/FX_Data/Saudi Arabia_FX.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/FX_Data/Saudi Arabia_FX.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="8">
   <si>
     <t>symbol</t>
   </si>
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G394"/>
+  <dimension ref="A1:G395"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9460,12 +9460,35 @@
         <v>3.7514</v>
       </c>
       <c r="E394">
-        <v>3.7456</v>
+        <v>3.7435</v>
       </c>
       <c r="F394">
-        <v>3.7485</v>
+        <v>3.7494</v>
       </c>
       <c r="G394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7">
+      <c r="A395" s="2">
+        <v>45261.375</v>
+      </c>
+      <c r="B395" t="s">
+        <v>7</v>
+      </c>
+      <c r="C395">
+        <v>3.7494</v>
+      </c>
+      <c r="D395">
+        <v>3.7514</v>
+      </c>
+      <c r="E395">
+        <v>3.7482</v>
+      </c>
+      <c r="F395">
+        <v>3.7486</v>
+      </c>
+      <c r="G395">
         <v>0</v>
       </c>
     </row>
